--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-biogas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="101">
   <si>
     <t>Activity</t>
   </si>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,81 +1049,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>1</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5">
-        <v>100</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1.00057</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1133,28 +1112,32 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
-        <v>39</v>
+      <c r="I30" s="5">
+        <v>100</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
+      <c r="A31" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B31" s="5">
-        <v>6.7000000000000002E-3</v>
+        <v>1.00057</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
@@ -1165,21 +1148,21 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="9">
-        <v>1.8499999999999999E-5</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>63</v>
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
@@ -1190,21 +1173,21 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="9">
-        <v>5.8399999999999999E-4</v>
+        <v>1.8499999999999999E-5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
@@ -1215,21 +1198,21 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="9">
-        <v>1.04E-10</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
@@ -1240,21 +1223,21 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="9">
-        <v>-6.2700000000000001E-6</v>
+        <v>1.04E-10</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
@@ -1265,21 +1248,21 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="9">
-        <v>-5.0000000000000002E-5</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
@@ -1290,21 +1273,21 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="9">
-        <v>6.8900000000000005E-4</v>
+        <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
@@ -1315,21 +1298,21 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="5">
-        <v>3.3599999999999998E-2</v>
+        <v>74</v>
+      </c>
+      <c r="B38" s="9">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
@@ -1340,18 +1323,18 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B39" s="5">
-        <v>3.2599999999999997E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>77</v>
@@ -1365,21 +1348,21 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="9">
-        <v>-6.8899999999999999E-7</v>
+        <v>79</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
@@ -1390,190 +1373,173 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="9">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="10"/>
-      <c r="G41" s="7"/>
-    </row>
     <row r="42" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="10"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>10</v>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B52" s="5">
         <v>1</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5">
-        <v>100</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1.00057</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="5">
-        <v>6.7000000000000002E-3</v>
-      </c>
       <c r="C52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
-        <v>28</v>
+      <c r="I52" s="5">
+        <v>100</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B53" s="5">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>63</v>
+        <v>1.00057</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>6</v>
@@ -1587,21 +1553,21 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="9">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>66</v>
+      <c r="A54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="5">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
@@ -1612,21 +1578,21 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="9">
-        <v>2.5999999999999998E-10</v>
+        <v>62</v>
+      </c>
+      <c r="B55" s="5">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
@@ -1637,21 +1603,21 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B56" s="9">
-        <v>-6.2700000000000001E-6</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
@@ -1662,21 +1628,21 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B57" s="9">
-        <v>-7.4999999999999993E-5</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
@@ -1687,18 +1653,18 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B58" s="9">
-        <v>6.8900000000000005E-4</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>6</v>
@@ -1712,21 +1678,21 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="5">
-        <v>3.3599999999999998E-2</v>
+        <v>72</v>
+      </c>
+      <c r="B59" s="9">
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
@@ -1737,21 +1703,21 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="5">
-        <v>3.2599999999999997E-2</v>
+        <v>74</v>
+      </c>
+      <c r="B60" s="9">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
@@ -1762,21 +1728,21 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="9">
-        <v>-6.8899999999999999E-7</v>
+        <v>76</v>
+      </c>
+      <c r="B61" s="5">
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
@@ -1787,218 +1753,201 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="5">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="9">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="10"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="10"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="66" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>57</v>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5">
-        <v>100</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1.00057</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73" s="5">
-        <v>6.7000000000000002E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="9">
-        <v>1.8499999999999999E-5</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5" t="s">
-        <v>64</v>
+      <c r="I74" s="5">
+        <v>100</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="9">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1.00057</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
@@ -2009,21 +1958,21 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="9">
-        <v>1.04E-10</v>
-      </c>
-      <c r="C76" s="5" t="s">
+      <c r="A76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="5">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
@@ -2034,18 +1983,18 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B77" s="9">
-        <v>-6.2700000000000001E-6</v>
+        <v>1.8499999999999999E-5</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>6</v>
@@ -2059,21 +2008,21 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B78" s="9">
-        <v>-5.0000000000000002E-5</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
@@ -2084,21 +2033,21 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B79" s="9">
-        <v>6.8900000000000005E-4</v>
+        <v>1.04E-10</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="s">
@@ -2109,21 +2058,21 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="5">
-        <v>3.3599999999999998E-2</v>
+        <v>70</v>
+      </c>
+      <c r="B80" s="9">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
@@ -2134,21 +2083,21 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="5">
-        <v>3.2599999999999997E-2</v>
+        <v>72</v>
+      </c>
+      <c r="B81" s="9">
+        <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5" t="s">
@@ -2159,21 +2108,21 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B82" s="9">
-        <v>-6.8899999999999999E-7</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5" t="s">
@@ -2184,243 +2133,226 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="5">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="9">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="10"/>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="10"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>10</v>
+      <c r="A90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G95" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+    <row r="96" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B96" s="5">
         <v>1</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5">
-        <v>100</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="5">
-        <v>1.00057</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="5">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="5">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="9">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>66</v>
+      <c r="C96" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5" t="s">
-        <v>67</v>
+      <c r="I96" s="5">
+        <v>100</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="9">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C97" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1.00057</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
@@ -2431,21 +2363,21 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="9">
-        <v>-6.2700000000000001E-6</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>66</v>
+      <c r="A98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="5">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
@@ -2456,21 +2388,21 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" s="9">
-        <v>-7.4999999999999993E-5</v>
+        <v>62</v>
+      </c>
+      <c r="B99" s="5">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
@@ -2481,21 +2413,21 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B100" s="9">
-        <v>6.8900000000000005E-4</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
@@ -2506,21 +2438,21 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="5">
-        <v>3.3599999999999998E-2</v>
+        <v>68</v>
+      </c>
+      <c r="B101" s="9">
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
@@ -2531,21 +2463,21 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B102" s="5">
-        <v>3.2599999999999997E-2</v>
+        <v>70</v>
+      </c>
+      <c r="B102" s="9">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
@@ -2556,15 +2488,15 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B103" s="9">
-        <v>-6.8899999999999999E-7</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>63</v>
@@ -2581,259 +2513,273 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104" s="9">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="5">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="5">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="9">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="10"/>
-      <c r="G104" s="7"/>
-    </row>
-    <row r="105" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+    <row r="108" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="10"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="4">
-        <v>1</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>16</v>
+      <c r="B115" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B116" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117" s="4">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="4">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" s="6">
-        <v>6.7000000000000001E-12</v>
+        <v>90</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="I119" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="120" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="6">
-        <v>8.7242061855670114E-2</v>
+        <v>95</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.73</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B121" s="4">
-        <v>2</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>21</v>
@@ -2842,209 +2788,209 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>96</v>
+    <row r="122" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="6">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B124" s="6">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="4">
         <v>2</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>6</v>
+      <c r="D125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" s="4">
-        <v>1</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>35</v>
+      <c r="B133" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B134" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="4">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="4">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B137" s="6">
-        <v>6.7000000000000001E-12</v>
+        <v>96</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>35</v>
@@ -3052,39 +2998,39 @@
     </row>
     <row r="138" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B138" s="6">
-        <v>8.7242061855670114E-2</v>
+        <v>95</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.65</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B139" s="4">
-        <v>2.48</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>21</v>
@@ -3093,252 +3039,252 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>91</v>
+    <row r="140" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B141" s="6">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B142" s="6">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="B143" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B151" s="4">
-        <v>1</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>16</v>
+      <c r="B151" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B152" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="4">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="4">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B155" s="6">
-        <v>6.7000000000000001E-12</v>
+        <v>91</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="I155" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="156" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B156" s="6">
-        <v>8.7242061855670114E-2</v>
+        <v>95</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0.98</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B157" s="4">
-        <v>1.82</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>21</v>
@@ -3347,249 +3293,249 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>97</v>
+    <row r="158" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="4">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" s="6">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B160" s="6">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="B161" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B169" s="4">
-        <v>1</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>16</v>
+      <c r="B169" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B170" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B171" s="4">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" s="4">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B173" s="6">
-        <v>6.7000000000000001E-12</v>
+        <v>97</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="I173" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="174" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B174" s="6">
-        <v>8.7242061855670114E-2</v>
+        <v>95</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2.1</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B175" s="4">
-        <v>0.13</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>20</v>
@@ -3602,250 +3548,250 @@
       </c>
     </row>
     <row r="176" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>92</v>
+      <c r="A176" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="4">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B177" s="6">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B178" s="6">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>6</v>
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B182" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I186" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B187" s="4">
-        <v>1</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I187" s="4" t="s">
-        <v>16</v>
+      <c r="B187" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B188" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" s="4">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B190" s="4">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B191" s="6">
-        <v>6.7000000000000001E-12</v>
+        <v>92</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="I191" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="192" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B192" s="6">
-        <v>8.7242061855670114E-2</v>
+        <v>95</v>
+      </c>
+      <c r="B192" s="4">
+        <v>2.35</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B193" s="4">
-        <v>0.22</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>20</v>
@@ -3857,249 +3803,249 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>98</v>
+    <row r="194" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" s="6">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B196" s="6">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B200" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I204" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B205" s="4">
-        <v>1</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>35</v>
+      <c r="B205" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B206" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G206" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H206" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B207" s="4">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B208" s="4">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B209" s="6">
-        <v>6.7000000000000001E-12</v>
+        <v>98</v>
+      </c>
+      <c r="B209" s="4">
+        <v>1</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B210" s="6">
-        <v>8.7242061855670114E-2</v>
+        <v>95</v>
+      </c>
+      <c r="B210" s="4">
+        <v>2.3199999999999998</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B211" s="4">
-        <v>0.19</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>21</v>
@@ -4108,252 +4054,252 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+    <row r="212" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="4">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B213" s="6">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214" s="6">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:8" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="4" t="s">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B218" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
+    <row r="219" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B219" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
+    <row r="220" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B220" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
+      <c r="B221" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
+      <c r="B222" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B223" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="4" t="s">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B224" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+    <row r="225" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="4" t="s">
+    <row r="226" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B226" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C226" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D226" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="E226" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F226" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G222" s="4" t="s">
+      <c r="G226" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H222" s="4" t="s">
+      <c r="H226" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I222" s="4" t="s">
+      <c r="I226" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
+    <row r="227" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B227" s="4">
         <v>1</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F223" s="4" t="s">
+      <c r="C227" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G223" s="4" t="s">
+      <c r="G227" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="H223" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I223" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B224" s="4">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G224" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H224" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B225" s="4">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B226" s="4">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B227" s="6">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G227" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I227" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B228" s="6">
-        <v>8.7242061855670114E-2</v>
+        <v>95</v>
+      </c>
+      <c r="B228" s="4">
+        <v>2.2599999999999998</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B229" s="4">
-        <v>0.06</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>21</v>
@@ -4362,385 +4308,471 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" spans="1:8" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+    <row r="230" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="4">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B231" s="6">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B232" s="6">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B235" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
+    <row r="236" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B236" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
+    <row r="237" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B237" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="4" t="s">
+    <row r="238" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B238" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
+    <row r="239" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="4" t="s">
+      <c r="B239" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="B240" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B241" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A242" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B242" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G242" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B243" s="4">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B246" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B247" s="4">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B248" s="4">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D244" s="4" t="s">
+      <c r="D248" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E244" s="4" t="s">
+      <c r="E248" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F244" s="4" t="s">
+      <c r="F248" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B245" s="4">
-        <v>1</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B246" s="8">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="8"/>
-    </row>
-    <row r="248" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A248" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="B249" s="4">
         <v>1</v>
       </c>
+      <c r="C249" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="250" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B250" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B250" s="8">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="8"/>
+    </row>
+    <row r="252" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B253" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B257" s="4">
-        <v>1</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A258" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B258" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B259" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>54</v>
+      <c r="A259" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B260" s="6">
-        <v>1.9300000000000002E-9</v>
+      <c r="A260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E260" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F260" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G260" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B261" s="4">
+        <v>1</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B262" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B263" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B264" s="6">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G264" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="5"/>
-      <c r="B261" s="6"/>
-      <c r="G261" s="5"/>
+    <row r="265" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="5"/>
+      <c r="B265" s="6"/>
+      <c r="G265" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
